--- a/20-excel-based/210-models/090-base-model-uom.xlsx
+++ b/20-excel-based/210-models/090-base-model-uom.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prket\IKEA Food\Berika-FOOD\Sprint_49\FoodCleanUp_RSAT2174\GIT_cleanup\feature_Berika2.6\rs-pim-mdm\src\20-excel-based\210-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddh\Downloads\PMIeTron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A5B9DC-DCD7-479B-B11B-449504985AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B1879-089F-4F15-8914-8773B644E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="929" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="929" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdownlist" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,40 +28,40 @@
     <sheet name="VARIANT MODEL" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_F2" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FILET" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FILT1" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ATTRIBUTES!$A$1:$AX$1</definedName>
+    <definedName name="_F2" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FILET" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FILT1" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ATTRIBUTES!$A$1:$BC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ATTRIBUTES LOCALE'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'E-A-R MODEL'!$A$1:$AS$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'E-A-R MODEL'!$A$1:$AU$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'E-C MODEL'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RELATIONSHIPS!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'RELATIONSHIPS LOCALE'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'VARIANT MODEL'!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">ATTRIBUTES!$A$1:$AT$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AM$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">ATTRIBUTES!$A$1:$AX$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AN$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
     <definedName name="_RefDataAttribute" localSheetId="4">ATTRIBUTES!#REF!</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
-    <definedName name="aaaa" localSheetId="9">'E-A-R MODEL'!$A$1:$AA$1</definedName>
+    <definedName name="aaaa" localSheetId="9">'E-A-R MODEL'!$A$1:$AB$1</definedName>
     <definedName name="RefDataAttribute" localSheetId="4">ATTRIBUTES!#REF!</definedName>
     <definedName name="RefDataAttribute">ATTRIBUTES!#REF!</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AT$347</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AG$446</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AX$347</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AH$594</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
     <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.Rows" localSheetId="9">'E-A-R MODEL'!#REF!,'E-A-R MODEL'!#REF!</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AT$347</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AG$446</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="5">ATTRIBUTES!$A$1:$AX$347</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="9">'E-A-R MODEL'!$A$1:$AH$594</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="3">ENTITIES!$A$1:$F$1</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="4">'ENTITIES LOCALE'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
   <si>
     <t>Action</t>
   </si>
@@ -629,6 +629,51 @@
     <t>deeplynested</t>
   </si>
   <si>
+    <t>REFERENCE DATA SORT TYPE</t>
+  </si>
+  <si>
+    <t>REFERENCE DATA SORT FIELD</t>
+  </si>
+  <si>
+    <t>cs-CZ</t>
+  </si>
+  <si>
+    <t>en-GB</t>
+  </si>
+  <si>
+    <t>en-IE</t>
+  </si>
+  <si>
+    <t>it-IT</t>
+  </si>
+  <si>
+    <t>ja-JP</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>nb-NO</t>
+  </si>
+  <si>
+    <t>pl-PL</t>
+  </si>
+  <si>
+    <t>pt-PT</t>
+  </si>
+  <si>
+    <t>zh-TW</t>
+  </si>
+  <si>
+    <t>MERGE REPLACE</t>
+  </si>
+  <si>
+    <t>COLOR CODES</t>
+  </si>
+  <si>
+    <t>PATH SUBTITLE</t>
+  </si>
+  <si>
     <t>UOMData</t>
   </si>
   <si>
@@ -660,39 +705,6 @@
   </si>
   <si>
     <t>ATTRIBUTE 2</t>
-  </si>
-  <si>
-    <t>unitsymbol</t>
-  </si>
-  <si>
-    <t>Unit Symbol</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>TextBox</t>
-  </si>
-  <si>
-    <t>This is the industry standard symbol used for the UOM</t>
-  </si>
-  <si>
-    <t>unitname</t>
-  </si>
-  <si>
-    <t>Unit Name</t>
-  </si>
-  <si>
-    <t>This determines the name of the UOM</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>This is the formula used to convert the UOM value into the base UOM. The argument of base unit is used in the formula as {0}</t>
   </si>
 </sst>
 </file>
@@ -949,20 +961,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -980,26 +992,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1007,40 +1018,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1126,42 +1112,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1236960</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D053B8-88C8-46FF-BFD8-C4CB963C11FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167400" y="58320"/>
-          <a:ext cx="2978280" cy="452160"/>
+          <a:off x="733425" y="171450"/>
+          <a:ext cx="2590800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1469,7 +1465,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1480,7 +1476,7 @@
     <col min="4" max="4" width="8.8984375"/>
     <col min="5" max="5" width="22.09765625"/>
     <col min="6" max="6" width="8.8984375"/>
-    <col min="7" max="7" width="8.8984375" style="37"/>
+    <col min="7" max="7" width="8.8984375" style="36"/>
     <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="1024" width="8.8984375"/>
   </cols>
@@ -1504,7 +1500,7 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1531,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>142</v>
@@ -1577,7 +1573,7 @@
         <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>144</v>
@@ -1591,7 +1587,7 @@
         <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
         <v>145</v>
@@ -1605,7 +1601,7 @@
         <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
         <v>146</v>
@@ -1619,7 +1615,7 @@
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
         <v>147</v>
@@ -1633,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
         <v>148</v>
@@ -1647,7 +1643,7 @@
         <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
         <v>149</v>
@@ -1660,7 +1656,9 @@
       <c r="C10" t="s">
         <v>102</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
       <c r="H10" t="s">
         <v>150</v>
       </c>
@@ -1669,55 +1667,73 @@
       <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
       <c r="H11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
       <c r="H12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
       <c r="H13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14"/>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
       <c r="H14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="G15"/>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
       <c r="H15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="G16"/>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
       <c r="H16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17"/>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
       <c r="H17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="7:8">
-      <c r="G18"/>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
       <c r="H18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="7:8">
-      <c r="G19"/>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
       <c r="H19" t="s">
         <v>159</v>
       </c>
@@ -1736,16 +1752,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU173"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD19"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:AU173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.8984375" customWidth="1"/>
@@ -1764,37 +1780,39 @@
     <col min="15" max="15" width="35"/>
     <col min="16" max="16" width="29.09765625"/>
     <col min="17" max="17" width="26.59765625"/>
-    <col min="18" max="19" width="16.09765625"/>
-    <col min="20" max="20" width="23.5"/>
-    <col min="21" max="21" width="25.59765625"/>
-    <col min="22" max="22" width="39.59765625"/>
-    <col min="23" max="23" width="30.59765625"/>
-    <col min="24" max="24" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.19921875" customWidth="1"/>
-    <col min="40" max="40" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="1031" width="8.8984375"/>
+    <col min="18" max="18" width="17.69921875" customWidth="1"/>
+    <col min="19" max="20" width="16.09765625"/>
+    <col min="21" max="21" width="23.5"/>
+    <col min="22" max="22" width="25.59765625"/>
+    <col min="23" max="23" width="39.59765625"/>
+    <col min="24" max="24" width="30.59765625"/>
+    <col min="25" max="25" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" customWidth="1"/>
+    <col min="31" max="31" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.19921875" customWidth="1"/>
+    <col min="41" max="41" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="1032" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="22" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:47" s="22" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1847,103 +1865,275 @@
         <v>67</v>
       </c>
       <c r="R1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AR1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AS1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AT1" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
+      <c r="AU1" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="15.6"/>
+    <row r="3" spans="1:47" ht="15.6"/>
+    <row r="4" spans="1:47" ht="15.6"/>
+    <row r="5" spans="1:47" ht="15.6"/>
+    <row r="6" spans="1:47" ht="15.6"/>
+    <row r="7" spans="1:47" ht="15.6"/>
+    <row r="8" spans="1:47" ht="15.6"/>
+    <row r="9" spans="1:47" ht="15.6"/>
+    <row r="10" spans="1:47" ht="15.6"/>
+    <row r="11" spans="1:47" ht="15.6"/>
+    <row r="12" spans="1:47" ht="15.6"/>
+    <row r="13" spans="1:47" ht="15.6"/>
+    <row r="14" spans="1:47" ht="15.6"/>
+    <row r="15" spans="1:47" ht="15.6"/>
+    <row r="16" spans="1:47" ht="15.6"/>
+    <row r="17" ht="15.6"/>
+    <row r="18" ht="15.6"/>
+    <row r="19" ht="15.6"/>
+    <row r="20" ht="15.6"/>
+    <row r="21" ht="15.6"/>
+    <row r="22" ht="15.6"/>
+    <row r="23" ht="15.6"/>
+    <row r="24" ht="15.6"/>
+    <row r="25" ht="15.6"/>
+    <row r="26" ht="15.6"/>
+    <row r="27" ht="15.6"/>
+    <row r="28" ht="15.6"/>
+    <row r="29" ht="15.6"/>
+    <row r="30" ht="15.6"/>
+    <row r="31" ht="15.6"/>
+    <row r="32" ht="15.6"/>
+    <row r="33" ht="15.6"/>
+    <row r="34" ht="15.6"/>
+    <row r="35" ht="15.6"/>
+    <row r="36" ht="15.6"/>
+    <row r="37" ht="15.6"/>
+    <row r="38" ht="15.6"/>
+    <row r="39" ht="15.6"/>
+    <row r="40" ht="15.6"/>
+    <row r="41" ht="15.6"/>
+    <row r="42" ht="15.6"/>
+    <row r="43" ht="15.6"/>
+    <row r="44" ht="15.6"/>
+    <row r="45" ht="15.6"/>
+    <row r="46" ht="15.6"/>
+    <row r="47" ht="15.6"/>
+    <row r="48" ht="15.6"/>
+    <row r="49" ht="15.6"/>
+    <row r="50" ht="15.6"/>
+    <row r="51" ht="15.6"/>
+    <row r="52" ht="15.6"/>
+    <row r="53" ht="15.6"/>
+    <row r="54" ht="15.6"/>
+    <row r="55" ht="15.6"/>
+    <row r="56" ht="15.6"/>
+    <row r="57" ht="15.6"/>
+    <row r="58" ht="15.6"/>
+    <row r="59" ht="15.6"/>
+    <row r="60" ht="15.6"/>
+    <row r="61" ht="15.6"/>
+    <row r="62" ht="15.6"/>
+    <row r="63" ht="15.6"/>
+    <row r="64" ht="15.6"/>
+    <row r="65" ht="15.6"/>
+    <row r="66" ht="15.6"/>
+    <row r="67" ht="15.6"/>
+    <row r="68" ht="15.6"/>
+    <row r="69" ht="15.6"/>
+    <row r="70" ht="15.6"/>
+    <row r="71" ht="15.6"/>
+    <row r="72" ht="15.6"/>
+    <row r="73" ht="15.6"/>
+    <row r="74" ht="15.6"/>
+    <row r="75" ht="15.6"/>
+    <row r="76" ht="15.6"/>
+    <row r="77" ht="15.6"/>
+    <row r="78" ht="15.6"/>
+    <row r="79" ht="15.6"/>
+    <row r="80" ht="15.6"/>
+    <row r="81" ht="15.6"/>
+    <row r="82" ht="15.6"/>
+    <row r="83" ht="15.6"/>
+    <row r="84" ht="15.6"/>
+    <row r="85" ht="15.6"/>
+    <row r="86" ht="15.6"/>
+    <row r="87" ht="15.6"/>
+    <row r="88" ht="15.6"/>
+    <row r="89" ht="15.6"/>
+    <row r="90" ht="15.6"/>
+    <row r="91" ht="15.6"/>
+    <row r="92" ht="15.6"/>
+    <row r="93" ht="15.6"/>
+    <row r="94" ht="15.6"/>
+    <row r="95" ht="15.6"/>
+    <row r="96" ht="15.6"/>
+    <row r="97" ht="15.6"/>
+    <row r="98" ht="15.6"/>
+    <row r="99" ht="15.6"/>
+    <row r="100" ht="15.6"/>
+    <row r="101" ht="15.6"/>
+    <row r="102" ht="15.6"/>
+    <row r="103" ht="15.6"/>
+    <row r="104" ht="15.6"/>
+    <row r="105" ht="15.6"/>
+    <row r="106" ht="15.6"/>
+    <row r="107" ht="15.6"/>
+    <row r="108" ht="15.6"/>
+    <row r="109" ht="15.6"/>
+    <row r="110" ht="15.6"/>
+    <row r="111" ht="15.6"/>
+    <row r="112" ht="15.6"/>
+    <row r="113" ht="15.6"/>
+    <row r="114" ht="15.6"/>
+    <row r="115" ht="15.6"/>
+    <row r="116" ht="15.6"/>
+    <row r="117" ht="15.6"/>
+    <row r="118" ht="15.6"/>
+    <row r="119" ht="15.6"/>
+    <row r="120" ht="15.6"/>
+    <row r="121" ht="15.6"/>
+    <row r="122" ht="15.6"/>
+    <row r="123" ht="15.6"/>
+    <row r="124" ht="15.6"/>
+    <row r="125" ht="15.6"/>
+    <row r="126" ht="15.6"/>
+    <row r="127" ht="15.6"/>
+    <row r="128" ht="15.6"/>
+    <row r="129" ht="15.6"/>
+    <row r="130" ht="15.6"/>
+    <row r="131" ht="15.6"/>
+    <row r="132" ht="15.6"/>
+    <row r="133" ht="15.6"/>
+    <row r="134" ht="15.6"/>
+    <row r="135" ht="15.6"/>
+    <row r="136" ht="15.6"/>
+    <row r="137" ht="15.6"/>
+    <row r="138" ht="15.6"/>
+    <row r="139" ht="15.6"/>
+    <row r="140" ht="15.6"/>
+    <row r="141" ht="15.6"/>
+    <row r="142" ht="15.6"/>
+    <row r="143" ht="15.6"/>
+    <row r="144" ht="15.6"/>
+    <row r="145" ht="15.6"/>
+    <row r="146" ht="15.6"/>
+    <row r="147" ht="15.6"/>
+    <row r="148" ht="15.6"/>
+    <row r="149" ht="15.6"/>
+    <row r="150" ht="15.6"/>
+    <row r="151" ht="15.6"/>
+    <row r="152" ht="15.6"/>
+    <row r="153" ht="15.6"/>
+    <row r="154" ht="15.6"/>
+    <row r="155" ht="15.6"/>
+    <row r="156" ht="15.6"/>
+    <row r="157" ht="15.6"/>
+    <row r="158" ht="15.6"/>
+    <row r="159" ht="15.6"/>
+    <row r="160" ht="15.6"/>
+    <row r="161" ht="15.6"/>
+    <row r="162" ht="15.6"/>
+    <row r="163" ht="15.6"/>
+    <row r="164" ht="15.6"/>
+    <row r="165" ht="15.6"/>
+    <row r="166" ht="15.6"/>
+    <row r="167" ht="15.6"/>
+    <row r="168" ht="15.6"/>
+    <row r="169" ht="15.6"/>
+    <row r="170" ht="15.6"/>
+    <row r="171" ht="15.6"/>
+    <row r="172" ht="15.6"/>
+    <row r="173" ht="15.6"/>
   </sheetData>
-  <autoFilter ref="A1:AS1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:AU1" xr:uid="{94CB99F9-0B1C-47B4-ADC5-EC2CABC8208E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8296BC61-006D-4D63-87D8-5B4E909DC98C}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA2:AA1048576 S2:U1048576 M2:N1048576 I2:J1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$2</xm:f>
@@ -1954,7 +2144,13 @@
           <x14:formula1>
             <xm:f>Dropdownlist!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ2:AR1048576 AG2:AG1048576 AI2:AI1048576</xm:sqref>
+          <xm:sqref>AR2:AS1048576 AH2:AH1048576 AJ2:AJ1048576 AU2:AU1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8296BC61-006D-4D63-87D8-5B4E909DC98C}">
+          <x14:formula1>
+            <xm:f>Dropdownlist!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:N1048576 T2:V1048576 AB2:AB1048576 I2:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1967,10 +2163,10 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.69921875" customWidth="1"/>
     <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
@@ -1983,7 +2179,7 @@
     <col min="9" max="9" width="39.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2034,56 +2230,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="51" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>175</v>
+      <c r="C1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information" prompt="Select value from dropdown" sqref="J2:J1048576" xr:uid="{F712BA67-2FC5-4756-86B9-29D6E02FC3BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Information" prompt="Select value from dropdown" sqref="J2:J1048576" xr:uid="{3F8C8471-836A-42C7-B54F-E198C2D9113D}">
       <formula1>"whereused,owned"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2093,7 +2290,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A03B8F79-A1B7-430C-933A-A5787717F599}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4B1AE0A-7E82-43BC-9E64-284C00843922}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$2</xm:f>
           </x14:formula1>
@@ -2179,10 +2376,10 @@
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="B20:C20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="24.59765625"/>
     <col min="3" max="3" width="12.8984375"/>
@@ -2192,7 +2389,7 @@
     <col min="7" max="1025" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2209,7 +2406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="21.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2243,12 +2440,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="21.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -2260,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2294,7 +2491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -2309,7 +2506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="21.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -2324,7 +2521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="12" t="s">
         <v>32</v>
@@ -2339,7 +2536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>33</v>
@@ -2347,10 +2544,10 @@
       <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2367,10 +2564,10 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.09765625"/>
     <col min="2" max="2" width="24.09765625"/>
@@ -2382,7 +2579,7 @@
     <col min="8" max="1027" width="8.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2395,7 +2592,7 @@
       <c r="D1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>116</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -2406,25 +2603,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{2AD84ED4-4B3C-4F89-83A1-CFD127C924B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
-      <sortCondition sortBy="cellColor" ref="B1" dxfId="1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{2AD84ED4-4B3C-4F89-83A1-CFD127C924B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2434,10 +2615,10 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="27.3984375" customWidth="1"/>
@@ -2446,7 +2627,7 @@
     <col min="5" max="5" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2476,9 +2657,9 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DDE992E-4A1E-4E5F-9B42-C872A73FA654}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
+            <xm:f>Dropdownlist!$G$2:$G$19</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2490,16 +2671,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.59765625"/>
     <col min="2" max="2" width="21.8984375"/>
@@ -2519,37 +2700,41 @@
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.09765625"/>
     <col min="20" max="20" width="27.59765625"/>
-    <col min="21" max="21" width="23.8984375"/>
-    <col min="22" max="24" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25"/>
-    <col min="26" max="26" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="16.8984375" customWidth="1"/>
-    <col min="33" max="33" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="18.5" customWidth="1"/>
-    <col min="36" max="36" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25"/>
+    <col min="29" max="29" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+    <col min="36" max="36" width="16.8984375" customWidth="1"/>
+    <col min="37" max="37" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="18.5" customWidth="1"/>
+    <col min="40" max="40" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="1034" width="9.09765625"/>
+    <col min="47" max="47" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="1039" width="9.09765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="23" customFormat="1">
+    <row r="1" spans="1:55" s="23" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2565,10 +2750,10 @@
       <c r="E1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -2614,155 +2799,114 @@
         <v>50</v>
       </c>
       <c r="V1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AZ1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="BA1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="BB1" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:50">
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="BC1" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50">
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" t="s">
-        <v>186</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" spans="1:55" ht="15.6"/>
+    <row r="3" spans="1:55" ht="15.6"/>
+    <row r="4" spans="1:55" ht="15.6"/>
+    <row r="5" spans="1:55" ht="15.6"/>
   </sheetData>
-  <autoFilter ref="A1:AX1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:BC1" xr:uid="{926BB29E-8AC3-4376-A569-FDD4562EA3FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -2781,19 +2925,19 @@
           <x14:formula1>
             <xm:f>Dropdownlist!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2:AN1048576 AV2:AW1048576 AL2:AL1048576</xm:sqref>
+          <xm:sqref>AR2:AR1048576 AZ2:BA1048576 AP2:AP1048576 BC2:BC1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE6D1B02-E770-43CD-99FF-8E873C7BE73E}">
           <x14:formula1>
             <xm:f>Dropdownlist!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:K1048576 P2:P1048576 X2:X1048576 AE2:AF1048576 E2:E1048576</xm:sqref>
+          <xm:sqref>I2:K1048576 P2:P1048576 AA2:AA1048576 AI2:AJ1048576 E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1ADFCF21-3A54-48D7-AB15-098DDE055F6E}">
           <x14:formula1>
             <xm:f>Dropdownlist!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>M2:M1048576 W2:W1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F200390-29CE-41A9-A8CB-131588A3769A}">
           <x14:formula1>
@@ -2815,13 +2959,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="3" width="21.8984375" customWidth="1"/>
@@ -2830,7 +2974,7 @@
     <col min="6" max="6" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2850,6 +2994,15 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.6"/>
+    <row r="3" spans="1:6" ht="15.6"/>
+    <row r="4" spans="1:6" ht="15.6"/>
+    <row r="5" spans="1:6" ht="15.6"/>
+    <row r="6" spans="1:6" ht="15.6"/>
+    <row r="7" spans="1:6" ht="15.6"/>
+    <row r="8" spans="1:6" ht="15.6"/>
+    <row r="9" spans="1:6" ht="15.6"/>
+    <row r="10" spans="1:6" ht="15.6"/>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2862,9 +3015,9 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEBE1632-4ABD-4B10-97EC-E7AE5310FBF1}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
+            <xm:f>Dropdownlist!$G$2:$G$19</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2879,10 +3032,10 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" customWidth="1"/>
@@ -2898,7 +3051,7 @@
     <col min="12" max="12" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2908,10 +3061,10 @@
       <c r="C1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -2929,10 +3082,10 @@
       <c r="J1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2973,10 +3126,10 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="7.09765625" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.3984375" customWidth="1"/>
     <col min="2" max="4" width="21.19921875" customWidth="1"/>
@@ -2984,7 +3137,7 @@
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -3016,9 +3169,9 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3D15F3D-B8AD-46C6-BBE5-4F718C6EABF4}">
           <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$9</xm:f>
+            <xm:f>Dropdownlist!$G$2:$G$19</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
